--- a/biology/Médecine/Hôpital_Sainte-Marthe_d'Avignon/Hôpital_Sainte-Marthe_d'Avignon.xlsx
+++ b/biology/Médecine/Hôpital_Sainte-Marthe_d'Avignon/Hôpital_Sainte-Marthe_d'Avignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Sainte-Marthe_d%27Avignon</t>
+          <t>Hôpital_Sainte-Marthe_d'Avignon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Sainte-Marthe d'Avignon est un ancien bâtiment de santé, situé à Avignon, dans le Vaucluse, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Sainte-Marthe_d%27Avignon</t>
+          <t>Hôpital_Sainte-Marthe_d'Avignon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hôpital Sainte-Marthe d'Avignon est fondé par un juriste, Bernard Rascas, en 1353. Confié aux Trinitaires dès sa création, il devient, dès le XVe siècle le principal hôpital d'Avignon. La ville en reprend la gestion au XVIe siècle. L'augmentation constante des malades le fréquentant, sous l'Ancien Régime, contraint à la reconstruction des bâtiments, par deux fois, au XVIIe siècle et au XVIIIe siècle. En 1845, lors de la fermeture de l'ancienne Aumône générale, les pensionnaires sont accueillis, un temps, à l'hôpital Sainte-Marthe, avant leur intégration aux hospices Saint-Louis. A la création du  centre hospitalier d'Avignon, en 1982, les pensionnaires furent transférés dans les nouveaux locaux. L'hôpital Sainte-Marthe ferme définitivement en 1994, et les bâtiments rattachés à l'Université d'Avignon et des pays de Vaucluse[1]. 
-L’hôpital Sainte-Marthe d'Avignon est inscrit au titre des monuments historiques, en trois phases le 22 février 1927, puis le 23 mai 1951 et le 13 septembre 1988[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hôpital Sainte-Marthe d'Avignon est fondé par un juriste, Bernard Rascas, en 1353. Confié aux Trinitaires dès sa création, il devient, dès le XVe siècle le principal hôpital d'Avignon. La ville en reprend la gestion au XVIe siècle. L'augmentation constante des malades le fréquentant, sous l'Ancien Régime, contraint à la reconstruction des bâtiments, par deux fois, au XVIIe siècle et au XVIIIe siècle. En 1845, lors de la fermeture de l'ancienne Aumône générale, les pensionnaires sont accueillis, un temps, à l'hôpital Sainte-Marthe, avant leur intégration aux hospices Saint-Louis. A la création du  centre hospitalier d'Avignon, en 1982, les pensionnaires furent transférés dans les nouveaux locaux. L'hôpital Sainte-Marthe ferme définitivement en 1994, et les bâtiments rattachés à l'Université d'Avignon et des pays de Vaucluse. 
+L’hôpital Sainte-Marthe d'Avignon est inscrit au titre des monuments historiques, en trois phases le 22 février 1927, puis le 23 mai 1951 et le 13 septembre 1988.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Sainte-Marthe_d%27Avignon</t>
+          <t>Hôpital_Sainte-Marthe_d'Avignon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancienne chapelle des religieux de a été transformé en pharmacie en 1756[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancienne chapelle des religieux de a été transformé en pharmacie en 1756.
 </t>
         </is>
       </c>
